--- a/biology/Botanique/Bambusa_arnhemica/Bambusa_arnhemica.xlsx
+++ b/biology/Botanique/Bambusa_arnhemica/Bambusa_arnhemica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Bambusa arnhemica est une espèce de plantes monocotylédones de la famille des Poaceae, sous-famille des Bambusoideae. C'est, avec Mullerochloa moreheadiana et Neololeba atra, l'une des trois espèces de bambous originaires d'Australie[1]. Elle pousse dans le nord-ouest du Territoire du Nord et est commune sur les rives du Kakadu.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Bambusa arnhemica est une espèce de plantes monocotylédones de la famille des Poaceae, sous-famille des Bambusoideae. C'est, avec Mullerochloa moreheadiana et Neololeba atra, l'une des trois espèces de bambous originaires d'Australie. Elle pousse dans le nord-ouest du Territoire du Nord et est commune sur les rives du Kakadu.
 Étymologie
-l'épithète spécifique « arnhemica » fait référence à la présence de la plante dans la Terre d'Arnhem[2].</t>
+l'épithète spécifique « arnhemica » fait référence à la présence de la plante dans la Terre d'Arnhem.</t>
         </is>
       </c>
     </row>
@@ -512,12 +524,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Bambusa arnhemica est une plante vivace, ligneuse, aux chaumes glabres, pouvant atteindre 10 m de haut et 60 mm de diamètre.
-Les feuilles ont un limbe linéaire de 30 cm de long sur 45 mm de large, présentant une ligule membraneuses, non ciliée et des auricules à la jonction gaine-limbe[3].
+Les feuilles ont un limbe linéaire de 30 cm de long sur 45 mm de large, présentant une ligule membraneuses, non ciliée et des auricules à la jonction gaine-limbe.
 L'inflorescence est une panicule composée d'épillets de 15 mm de long environ.
-Les fleurons comptent trois lodicules membraneux, six anthères et 2 à 3 stigmates[4].
+Les fleurons comptent trois lodicules membraneux, six anthères et 2 à 3 stigmates.
 </t>
         </is>
       </c>
